--- a/Project-KTXForecasting/Result/Forecasting_1DLag12_경부선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_1DLag12_경부선.xlsx
@@ -528,25 +528,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1277865545063.917</v>
+        <v>1293187373683.802</v>
       </c>
       <c r="C4">
-        <v>1130427.151595324</v>
+        <v>1137183.966508411</v>
       </c>
       <c r="D4">
-        <v>0.03182943858451384</v>
+        <v>0.03259845260137571</v>
       </c>
       <c r="E4">
-        <v>563129.75</v>
+        <v>567351.8333333334</v>
       </c>
       <c r="F4">
-        <v>0.1170303896497654</v>
+        <v>0.1180024902686798</v>
       </c>
       <c r="G4">
-        <v>268734.125</v>
+        <v>294519.75</v>
       </c>
       <c r="H4">
-        <v>0.0818382991178043</v>
+        <v>0.08662746593430896</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -802,7 +802,7 @@
         <v>3209957.25</v>
       </c>
       <c r="F2">
-        <v>3237441.25</v>
+        <v>3265766</v>
       </c>
       <c r="G2">
         <v>3094675</v>
@@ -843,7 +843,7 @@
         <v>3232945.5</v>
       </c>
       <c r="F3">
-        <v>3139402.5</v>
+        <v>3126805.25</v>
       </c>
       <c r="G3">
         <v>3133824.5</v>
@@ -884,7 +884,7 @@
         <v>3186083.75</v>
       </c>
       <c r="F4">
-        <v>3038099.5</v>
+        <v>3077565.25</v>
       </c>
       <c r="G4">
         <v>3163710.25</v>
@@ -925,7 +925,7 @@
         <v>3169345.25</v>
       </c>
       <c r="F5">
-        <v>3128771.75</v>
+        <v>3163941</v>
       </c>
       <c r="G5">
         <v>3169293.75</v>
@@ -966,7 +966,7 @@
         <v>3189311.5</v>
       </c>
       <c r="F6">
-        <v>3043614</v>
+        <v>2999477.75</v>
       </c>
       <c r="G6">
         <v>3056018.75</v>
@@ -1007,7 +1007,7 @@
         <v>3298762.75</v>
       </c>
       <c r="F7">
-        <v>2989893.25</v>
+        <v>2930775.5</v>
       </c>
       <c r="G7">
         <v>3144784</v>
@@ -1048,7 +1048,7 @@
         <v>3367579.25</v>
       </c>
       <c r="F8">
-        <v>3097215.5</v>
+        <v>3059409.75</v>
       </c>
       <c r="G8">
         <v>2982193</v>
@@ -1089,7 +1089,7 @@
         <v>3385911</v>
       </c>
       <c r="F9">
-        <v>3143936.5</v>
+        <v>3136493</v>
       </c>
       <c r="G9">
         <v>3027068.5</v>
@@ -1130,7 +1130,7 @@
         <v>3357167.25</v>
       </c>
       <c r="F10">
-        <v>3199956</v>
+        <v>3203709</v>
       </c>
       <c r="G10">
         <v>3108190.75</v>
@@ -1171,7 +1171,7 @@
         <v>3326395.75</v>
       </c>
       <c r="F11">
-        <v>3198496</v>
+        <v>3216823.75</v>
       </c>
       <c r="G11">
         <v>3173108</v>
@@ -1212,7 +1212,7 @@
         <v>3274700</v>
       </c>
       <c r="F12">
-        <v>3263569.5</v>
+        <v>3268651</v>
       </c>
       <c r="G12">
         <v>3130875.75</v>
@@ -1253,7 +1253,7 @@
         <v>3403701.5</v>
       </c>
       <c r="F13">
-        <v>3256894.25</v>
+        <v>3237207.75</v>
       </c>
       <c r="G13">
         <v>3194160.25</v>
@@ -1294,7 +1294,7 @@
         <v>3526623</v>
       </c>
       <c r="F14">
-        <v>3236755.25</v>
+        <v>3186677.25</v>
       </c>
       <c r="G14">
         <v>3021179.5</v>
@@ -1335,7 +1335,7 @@
         <v>3611019</v>
       </c>
       <c r="F15">
-        <v>3179374</v>
+        <v>3144941.75</v>
       </c>
       <c r="G15">
         <v>2873162.75</v>
@@ -1376,7 +1376,7 @@
         <v>3573648.5</v>
       </c>
       <c r="F16">
-        <v>3307177</v>
+        <v>3284186.5</v>
       </c>
       <c r="G16">
         <v>2733266.75</v>
@@ -1417,7 +1417,7 @@
         <v>3660756.75</v>
       </c>
       <c r="F17">
-        <v>3395188.75</v>
+        <v>3431402.25</v>
       </c>
       <c r="G17">
         <v>2709866.75</v>
@@ -1458,7 +1458,7 @@
         <v>3604046.75</v>
       </c>
       <c r="F18">
-        <v>3408869.5</v>
+        <v>3427076</v>
       </c>
       <c r="G18">
         <v>2718924.25</v>
@@ -1499,7 +1499,7 @@
         <v>3650265.25</v>
       </c>
       <c r="F19">
-        <v>3452340.75</v>
+        <v>3431678</v>
       </c>
       <c r="G19">
         <v>2942693.75</v>
@@ -1540,7 +1540,7 @@
         <v>3759440.5</v>
       </c>
       <c r="F20">
-        <v>3383889.25</v>
+        <v>3299584.75</v>
       </c>
       <c r="G20">
         <v>2975058.5</v>
@@ -1581,7 +1581,7 @@
         <v>3788538.5</v>
       </c>
       <c r="F21">
-        <v>3360012.5</v>
+        <v>3270109.25</v>
       </c>
       <c r="G21">
         <v>2705739</v>
@@ -1622,7 +1622,7 @@
         <v>3839723</v>
       </c>
       <c r="F22">
-        <v>3454967</v>
+        <v>3405209.25</v>
       </c>
       <c r="G22">
         <v>2809443.5</v>
@@ -1663,7 +1663,7 @@
         <v>3808182.75</v>
       </c>
       <c r="F23">
-        <v>3615072</v>
+        <v>3623272.25</v>
       </c>
       <c r="G23">
         <v>2908104.75</v>
@@ -1704,7 +1704,7 @@
         <v>3862500.25</v>
       </c>
       <c r="F24">
-        <v>3736549.5</v>
+        <v>3769030.25</v>
       </c>
       <c r="G24">
         <v>2715530</v>
@@ -1745,7 +1745,7 @@
         <v>3918111.25</v>
       </c>
       <c r="F25">
-        <v>3780591.5</v>
+        <v>3777393.25</v>
       </c>
       <c r="G25">
         <v>2908749.25</v>
@@ -1786,7 +1786,7 @@
         <v>4008163</v>
       </c>
       <c r="F26">
-        <v>3806120</v>
+        <v>3810667.75</v>
       </c>
       <c r="G26">
         <v>2811998</v>
@@ -1827,7 +1827,7 @@
         <v>4007408</v>
       </c>
       <c r="F27">
-        <v>3803687.5</v>
+        <v>3798343</v>
       </c>
       <c r="G27">
         <v>1861993.75</v>
@@ -1868,7 +1868,7 @@
         <v>4037032.5</v>
       </c>
       <c r="F28">
-        <v>3859141.25</v>
+        <v>3894753</v>
       </c>
       <c r="G28">
         <v>2214791.5</v>
@@ -1909,7 +1909,7 @@
         <v>4060179.25</v>
       </c>
       <c r="F29">
-        <v>3892380.75</v>
+        <v>3922542.25</v>
       </c>
       <c r="G29">
         <v>3011903.25</v>
@@ -1950,7 +1950,7 @@
         <v>4097172.25</v>
       </c>
       <c r="F30">
-        <v>3916746.75</v>
+        <v>3930745.75</v>
       </c>
       <c r="G30">
         <v>2911672.25</v>
@@ -1991,7 +1991,7 @@
         <v>4099446.75</v>
       </c>
       <c r="F31">
-        <v>3925754.5</v>
+        <v>3912144</v>
       </c>
       <c r="G31">
         <v>2931396.75</v>
@@ -2032,7 +2032,7 @@
         <v>4081235</v>
       </c>
       <c r="F32">
-        <v>3872403.5</v>
+        <v>3878509.25</v>
       </c>
       <c r="G32">
         <v>3021100.75</v>
@@ -2073,7 +2073,7 @@
         <v>4114394.75</v>
       </c>
       <c r="F33">
-        <v>3874399.5</v>
+        <v>3890848.25</v>
       </c>
       <c r="G33">
         <v>2751385</v>
@@ -2114,7 +2114,7 @@
         <v>4202335.5</v>
       </c>
       <c r="F34">
-        <v>3893149.5</v>
+        <v>3900755</v>
       </c>
       <c r="G34">
         <v>2573454.75</v>
@@ -2231,25 +2231,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>228421515355.1823</v>
+        <v>219940419611.4544</v>
       </c>
       <c r="C4">
-        <v>477934.6350236424</v>
+        <v>468978.0587740267</v>
       </c>
       <c r="D4">
-        <v>0.02734766448831658</v>
+        <v>0.026476770963454</v>
       </c>
       <c r="E4">
-        <v>257773.1458333333</v>
+        <v>253554.3854166667</v>
       </c>
       <c r="F4">
-        <v>0.1107992281939543</v>
+        <v>0.1093131922605834</v>
       </c>
       <c r="G4">
-        <v>142099.8125</v>
+        <v>133037.9375</v>
       </c>
       <c r="H4">
-        <v>0.08495568331071242</v>
+        <v>0.0823012324676234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2505,7 +2505,7 @@
         <v>1699556.5</v>
       </c>
       <c r="F2">
-        <v>1639746.875</v>
+        <v>1630184</v>
       </c>
       <c r="G2">
         <v>1595564.625</v>
@@ -2546,7 +2546,7 @@
         <v>1706143.25</v>
       </c>
       <c r="F3">
-        <v>1670360.625</v>
+        <v>1700881.125</v>
       </c>
       <c r="G3">
         <v>1599028.75</v>
@@ -2587,7 +2587,7 @@
         <v>1674776.375</v>
       </c>
       <c r="F4">
-        <v>1697380.5</v>
+        <v>1691143.5</v>
       </c>
       <c r="G4">
         <v>1620169.25</v>
@@ -2628,7 +2628,7 @@
         <v>1580422.125</v>
       </c>
       <c r="F5">
-        <v>1469820.25</v>
+        <v>1453612.75</v>
       </c>
       <c r="G5">
         <v>1595085.25</v>
@@ -2669,7 +2669,7 @@
         <v>1612071.375</v>
       </c>
       <c r="F6">
-        <v>1521864.5</v>
+        <v>1512269.625</v>
       </c>
       <c r="G6">
         <v>1610880.75</v>
@@ -2710,7 +2710,7 @@
         <v>1646030</v>
       </c>
       <c r="F7">
-        <v>1624294.25</v>
+        <v>1639929.5</v>
       </c>
       <c r="G7">
         <v>1594643.875</v>
@@ -2751,7 +2751,7 @@
         <v>1741602.25</v>
       </c>
       <c r="F8">
-        <v>1704832.875</v>
+        <v>1722891</v>
       </c>
       <c r="G8">
         <v>1613020</v>
@@ -2792,7 +2792,7 @@
         <v>1792734.625</v>
       </c>
       <c r="F9">
-        <v>1691665.75</v>
+        <v>1695518.625</v>
       </c>
       <c r="G9">
         <v>1607080</v>
@@ -2833,7 +2833,7 @@
         <v>1783036.375</v>
       </c>
       <c r="F10">
-        <v>1715574</v>
+        <v>1723314.5</v>
       </c>
       <c r="G10">
         <v>1596021</v>
@@ -2874,7 +2874,7 @@
         <v>1717228.25</v>
       </c>
       <c r="F11">
-        <v>1677609.5</v>
+        <v>1677543.875</v>
       </c>
       <c r="G11">
         <v>1600119.5</v>
@@ -2915,7 +2915,7 @@
         <v>1646643.125</v>
       </c>
       <c r="F12">
-        <v>1589878.125</v>
+        <v>1602646.25</v>
       </c>
       <c r="G12">
         <v>1588154.125</v>
@@ -2956,7 +2956,7 @@
         <v>1684941.875</v>
       </c>
       <c r="F13">
-        <v>1713294.25</v>
+        <v>1725713.875</v>
       </c>
       <c r="G13">
         <v>1564240.375</v>
@@ -2997,7 +2997,7 @@
         <v>1780438.75</v>
       </c>
       <c r="F14">
-        <v>1810420.625</v>
+        <v>1815124.75</v>
       </c>
       <c r="G14">
         <v>1562004.125</v>
@@ -3038,7 +3038,7 @@
         <v>1918910.625</v>
       </c>
       <c r="F15">
-        <v>1856829.25</v>
+        <v>1897091.25</v>
       </c>
       <c r="G15">
         <v>1545086.5</v>
@@ -3079,7 +3079,7 @@
         <v>1857128</v>
       </c>
       <c r="F16">
-        <v>1836526.125</v>
+        <v>1828793.375</v>
       </c>
       <c r="G16">
         <v>1553069.375</v>
@@ -3120,7 +3120,7 @@
         <v>1790162</v>
       </c>
       <c r="F17">
-        <v>1772625.875</v>
+        <v>1787118.375</v>
       </c>
       <c r="G17">
         <v>1520224.375</v>
@@ -3161,7 +3161,7 @@
         <v>1677914.5</v>
       </c>
       <c r="F18">
-        <v>1694463.75</v>
+        <v>1689030.125</v>
       </c>
       <c r="G18">
         <v>1494119.875</v>
@@ -3202,7 +3202,7 @@
         <v>1754288.25</v>
       </c>
       <c r="F19">
-        <v>1754303.125</v>
+        <v>1738830.375</v>
       </c>
       <c r="G19">
         <v>1415395.25</v>
@@ -3243,7 +3243,7 @@
         <v>1894333.125</v>
       </c>
       <c r="F20">
-        <v>1776243.25</v>
+        <v>1760328.375</v>
       </c>
       <c r="G20">
         <v>1287016.375</v>
@@ -3284,7 +3284,7 @@
         <v>2038888.25</v>
       </c>
       <c r="F21">
-        <v>1941302.875</v>
+        <v>1940663.25</v>
       </c>
       <c r="G21">
         <v>1366614.875</v>
@@ -3325,7 +3325,7 @@
         <v>2125874.75</v>
       </c>
       <c r="F22">
-        <v>1999554.875</v>
+        <v>1994825.875</v>
       </c>
       <c r="G22">
         <v>1142840.375</v>
@@ -3366,7 +3366,7 @@
         <v>2057758.75</v>
       </c>
       <c r="F23">
-        <v>1925974.75</v>
+        <v>1910715.875</v>
       </c>
       <c r="G23">
         <v>1142292.875</v>
@@ -3407,7 +3407,7 @@
         <v>2058446.75</v>
       </c>
       <c r="F24">
-        <v>2035565.875</v>
+        <v>2047898.75</v>
       </c>
       <c r="G24">
         <v>1089740.125</v>
@@ -3448,7 +3448,7 @@
         <v>2031496.875</v>
       </c>
       <c r="F25">
-        <v>2002224.875</v>
+        <v>1952688.125</v>
       </c>
       <c r="G25">
         <v>1082518.875</v>
@@ -3489,7 +3489,7 @@
         <v>2138915.25</v>
       </c>
       <c r="F26">
-        <v>2069154.25</v>
+        <v>2074446.625</v>
       </c>
       <c r="G26">
         <v>1066758.375</v>
@@ -3530,7 +3530,7 @@
         <v>2198296.5</v>
       </c>
       <c r="F27">
-        <v>2138248</v>
+        <v>2147897</v>
       </c>
       <c r="G27">
         <v>1096571.75</v>
@@ -3571,7 +3571,7 @@
         <v>2161330.5</v>
       </c>
       <c r="F28">
-        <v>2080380.625</v>
+        <v>2073784.75</v>
       </c>
       <c r="G28">
         <v>1050389.75</v>
@@ -3612,7 +3612,7 @@
         <v>2102161.75</v>
       </c>
       <c r="F29">
-        <v>2080642.5</v>
+        <v>2089631.75</v>
       </c>
       <c r="G29">
         <v>1052271.5</v>
@@ -3653,7 +3653,7 @@
         <v>2118349.25</v>
       </c>
       <c r="F30">
-        <v>2041035.125</v>
+        <v>2019809.375</v>
       </c>
       <c r="G30">
         <v>1067491.75</v>
@@ -3694,7 +3694,7 @@
         <v>2126174.5</v>
       </c>
       <c r="F31">
-        <v>2080065</v>
+        <v>2076515.125</v>
       </c>
       <c r="G31">
         <v>1025862.3125</v>
@@ -3735,7 +3735,7 @@
         <v>2095500.375</v>
       </c>
       <c r="F32">
-        <v>2058879.25</v>
+        <v>2046216.5</v>
       </c>
       <c r="G32">
         <v>1042907.75</v>
@@ -3776,7 +3776,7 @@
         <v>2036192.625</v>
       </c>
       <c r="F33">
-        <v>2013890.375</v>
+        <v>2011018.75</v>
       </c>
       <c r="G33">
         <v>1033729.5</v>
@@ -3817,7 +3817,7 @@
         <v>2123972</v>
       </c>
       <c r="F34">
-        <v>1967345.5</v>
+        <v>1952368.75</v>
       </c>
       <c r="G34">
         <v>1066911.125</v>
@@ -4012,25 +4012,25 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>499576594770.6628</v>
+        <v>502362344171.9766</v>
       </c>
       <c r="C7">
-        <v>706807.3250686235</v>
+        <v>708775.2423525928</v>
       </c>
       <c r="D7">
-        <v>0.05325167056305668</v>
+        <v>0.05388827405030488</v>
       </c>
       <c r="E7">
-        <v>406090.90625</v>
+        <v>408456.7708333333</v>
       </c>
       <c r="F7">
-        <v>0.1751808963939126</v>
+        <v>0.1765938925733942</v>
       </c>
       <c r="G7">
-        <v>253055.125</v>
+        <v>262266</v>
       </c>
       <c r="H7">
-        <v>0.1513348451397476</v>
+        <v>0.1573734100783431</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4217,7 +4217,7 @@
         <v>1479137.5</v>
       </c>
       <c r="I2">
-        <v>1507005.125</v>
+        <v>1504315.875</v>
       </c>
       <c r="J2">
         <v>1512787.25</v>
@@ -4258,7 +4258,7 @@
         <v>1453901.125</v>
       </c>
       <c r="I3">
-        <v>1427920.625</v>
+        <v>1423836.25</v>
       </c>
       <c r="J3">
         <v>1449049.625</v>
@@ -4299,7 +4299,7 @@
         <v>1459812.25</v>
       </c>
       <c r="I4">
-        <v>1429152.25</v>
+        <v>1416158.25</v>
       </c>
       <c r="J4">
         <v>1581488.75</v>
@@ -4340,7 +4340,7 @@
         <v>1487305.375</v>
       </c>
       <c r="I5">
-        <v>1452077.125</v>
+        <v>1463903</v>
       </c>
       <c r="J5">
         <v>1535835.75</v>
@@ -4381,7 +4381,7 @@
         <v>1477078.75</v>
       </c>
       <c r="I6">
-        <v>1404625.125</v>
+        <v>1415788.75</v>
       </c>
       <c r="J6">
         <v>1438898.75</v>
@@ -4422,7 +4422,7 @@
         <v>1479298.375</v>
       </c>
       <c r="I7">
-        <v>1338961.625</v>
+        <v>1316925.25</v>
       </c>
       <c r="J7">
         <v>1568350.5</v>
@@ -4463,7 +4463,7 @@
         <v>1548621</v>
       </c>
       <c r="I8">
-        <v>1371824.375</v>
+        <v>1347874.875</v>
       </c>
       <c r="J8">
         <v>1519661.25</v>
@@ -4504,7 +4504,7 @@
         <v>1530747.75</v>
       </c>
       <c r="I9">
-        <v>1486486.125</v>
+        <v>1490100.75</v>
       </c>
       <c r="J9">
         <v>1524422.25</v>
@@ -4545,7 +4545,7 @@
         <v>1560215.875</v>
       </c>
       <c r="I10">
-        <v>1471747.5</v>
+        <v>1457750</v>
       </c>
       <c r="J10">
         <v>1562245</v>
@@ -4586,7 +4586,7 @@
         <v>1556453.375</v>
       </c>
       <c r="I11">
-        <v>1469397.375</v>
+        <v>1469205.75</v>
       </c>
       <c r="J11">
         <v>1201191.375</v>
@@ -4627,7 +4627,7 @@
         <v>1561701.125</v>
       </c>
       <c r="I12">
-        <v>1527916</v>
+        <v>1543658</v>
       </c>
       <c r="J12">
         <v>452964.75</v>
@@ -4668,7 +4668,7 @@
         <v>1569838.875</v>
       </c>
       <c r="I13">
-        <v>1458887.125</v>
+        <v>1462714.75</v>
       </c>
       <c r="J13">
         <v>548686.75</v>
@@ -4709,7 +4709,7 @@
         <v>1618884.625</v>
       </c>
       <c r="I14">
-        <v>1486932</v>
+        <v>1472498.375</v>
       </c>
       <c r="J14">
         <v>672278.75</v>
@@ -4750,7 +4750,7 @@
         <v>1653967.25</v>
       </c>
       <c r="I15">
-        <v>1536273.25</v>
+        <v>1518296.25</v>
       </c>
       <c r="J15">
         <v>1036532.625</v>
@@ -4791,7 +4791,7 @@
         <v>1653076.625</v>
       </c>
       <c r="I16">
-        <v>1545269.25</v>
+        <v>1538678.375</v>
       </c>
       <c r="J16">
         <v>1093062.5</v>
@@ -4832,7 +4832,7 @@
         <v>1643904.5</v>
       </c>
       <c r="I17">
-        <v>1589345.5</v>
+        <v>1587932.5</v>
       </c>
       <c r="J17">
         <v>1009905.625</v>
@@ -4873,7 +4873,7 @@
         <v>1636456.5</v>
       </c>
       <c r="I18">
-        <v>1605234.625</v>
+        <v>1604225.25</v>
       </c>
       <c r="J18">
         <v>881692.75</v>
@@ -4914,7 +4914,7 @@
         <v>1643381.5</v>
       </c>
       <c r="I19">
-        <v>1534257.875</v>
+        <v>1536679.625</v>
       </c>
       <c r="J19">
         <v>866309.125</v>
@@ -4955,7 +4955,7 @@
         <v>1706926.5</v>
       </c>
       <c r="I20">
-        <v>1522821.25</v>
+        <v>1515734</v>
       </c>
       <c r="J20">
         <v>685989.625</v>
@@ -4996,7 +4996,7 @@
         <v>1704767.375</v>
       </c>
       <c r="I21">
-        <v>1548277.125</v>
+        <v>1528314.5</v>
       </c>
       <c r="J21">
         <v>731383.4375</v>
@@ -5037,7 +5037,7 @@
         <v>1781129.25</v>
       </c>
       <c r="I22">
-        <v>1557372.875</v>
+        <v>1521285.625</v>
       </c>
       <c r="J22">
         <v>610003.625</v>
@@ -5078,7 +5078,7 @@
         <v>1848869</v>
       </c>
       <c r="I23">
-        <v>1760837.25</v>
+        <v>1751847.25</v>
       </c>
       <c r="J23">
         <v>758394.1875</v>
@@ -5119,7 +5119,7 @@
         <v>1830492.5</v>
       </c>
       <c r="I24">
-        <v>1822745.125</v>
+        <v>1826728.875</v>
       </c>
       <c r="J24">
         <v>1026790.3125</v>
@@ -5160,7 +5160,7 @@
         <v>1894801.75</v>
       </c>
       <c r="I25">
-        <v>1807596.375</v>
+        <v>1799203.75</v>
       </c>
       <c r="J25">
         <v>988769.5</v>
@@ -5201,7 +5201,7 @@
         <v>1866472.5</v>
       </c>
       <c r="I26">
-        <v>1877369.75</v>
+        <v>1884741.75</v>
       </c>
       <c r="J26">
         <v>1124940.5</v>
@@ -5242,7 +5242,7 @@
         <v>1914133</v>
       </c>
       <c r="I27">
-        <v>1887676.75</v>
+        <v>1889000.375</v>
       </c>
       <c r="J27">
         <v>1052070.875</v>
@@ -5283,7 +5283,7 @@
         <v>1940886.375</v>
       </c>
       <c r="I28">
-        <v>1889357.25</v>
+        <v>1887456.25</v>
       </c>
       <c r="J28">
         <v>959661.375</v>
@@ -5324,7 +5324,7 @@
         <v>1922808.125</v>
       </c>
       <c r="I29">
-        <v>1890162.25</v>
+        <v>1891925.625</v>
       </c>
       <c r="J29">
         <v>823157.625</v>
@@ -5365,7 +5365,7 @@
         <v>1934629.5</v>
       </c>
       <c r="I30">
-        <v>1888159</v>
+        <v>1887806.375</v>
       </c>
       <c r="J30">
         <v>793119.8125</v>
@@ -5406,7 +5406,7 @@
         <v>1979692.625</v>
       </c>
       <c r="I31">
-        <v>1903864.5</v>
+        <v>1906101</v>
       </c>
       <c r="J31">
         <v>940456</v>
@@ -5447,7 +5447,7 @@
         <v>1951668.875</v>
       </c>
       <c r="I32">
-        <v>1888895.25</v>
+        <v>1899612.875</v>
       </c>
       <c r="J32">
         <v>1420411.75</v>
@@ -5488,7 +5488,7 @@
         <v>1930463.875</v>
       </c>
       <c r="I33">
-        <v>1844428.5</v>
+        <v>1854231.875</v>
       </c>
       <c r="J33">
         <v>1259192</v>
@@ -5529,7 +5529,7 @@
         <v>1940879.125</v>
       </c>
       <c r="I34">
-        <v>1859082.625</v>
+        <v>1872063.625</v>
       </c>
       <c r="J34">
         <v>1218604.625</v>
